--- a/Modulo1/Ex3/worldwide_aggregate.xlsx
+++ b/Modulo1/Ex3/worldwide_aggregate.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ee9697dd345df56c/Desktop/DATA SCIENCE/DATA ANALYST EPICODE/EPICODEDAPT0323/EPICODEDAPT032023SC/Modulo1/Ex3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{445157A9-B3C3-4832-A6F1-E0B17047C0E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="8_{445157A9-B3C3-4832-A6F1-E0B17047C0E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{37E6C3D9-DA6D-4799-9DC2-C6591EFAEA89}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="worldwide-aggregate" sheetId="1" r:id="rId1"/>
@@ -1669,7 +1669,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2505,7 +2505,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E817"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2515,6 +2515,7 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="21.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
